--- a/timing_full.xlsx
+++ b/timing_full.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CurrentCalculation" sheetId="2" r:id="rId2"/>
+    <sheet name="IRLEDParameters" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Độ dài viên đạn</t>
   </si>
@@ -29,6 +31,157 @@
   </si>
   <si>
     <t>Thời gian IR LED sáng (us)</t>
+  </si>
+  <si>
+    <t>Dòng điện đi vào LED</t>
+  </si>
+  <si>
+    <t>Tính toán mạch khuếch đại tín hiệu</t>
+  </si>
+  <si>
+    <t>Dòng điện cung cấp cho IR LED (A)</t>
+  </si>
+  <si>
+    <t>Chỉ dùng R &amp; Mạch so sánh</t>
+  </si>
+  <si>
+    <t>Dùng Transimpedance Amplifier &amp; Mạch so sánh</t>
+  </si>
+  <si>
+    <t>Cường độ bức xạ (mW/sr)</t>
+  </si>
+  <si>
+    <t>Giá trị R tối đa để tránh bão hòa comparator (kOhm) - với VDD = 3V3</t>
+  </si>
+  <si>
+    <t>Điện áp thiết kế với dòng min</t>
+  </si>
+  <si>
+    <t>Khoảng cách (trục x) giữa LED và sensor (m)</t>
+  </si>
+  <si>
+    <t>Giá trị R thiết kế (kOhm)</t>
+  </si>
+  <si>
+    <t>Khoảng cách (trục y) giữa LED và sensor (m)</t>
+  </si>
+  <si>
+    <t>Điện áp vào mạch so sánh min (mV)</t>
+  </si>
+  <si>
+    <t>Băng thông thiết kế (Mhz)</t>
+  </si>
+  <si>
+    <t>Góc phát &amp; Góc tới (radian)</t>
+  </si>
+  <si>
+    <t>Điện áp vào mạch so sánh max (mV)</t>
+  </si>
+  <si>
+    <t>Giá trị lớn nhất của tụ feedback (pF)</t>
+  </si>
+  <si>
+    <t>Hệ số IR LED</t>
+  </si>
+  <si>
+    <t>Ngưỡng so sánh đề nghị (mV) (50% ngưỡng min)</t>
+  </si>
+  <si>
+    <t>Hằng số thời gian t (ns)</t>
+  </si>
+  <si>
+    <t>Hệ số sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thời gian input rise MAX từ 0V tới ngưỡng so sánh (ns) </t>
+  </si>
+  <si>
+    <t>Cường độ bức xạ nhận tại IR sensor (mW/cm2)</t>
+  </si>
+  <si>
+    <t>Thời gian phản ứng MAX - thời gian để ánh sáng thay đổi (không có -&gt; có) tới khi CPLD nhận được tín hiệu thay đổi đó (us)</t>
+  </si>
+  <si>
+    <t>Dòng điện output của IR Sensor (uA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thời gian input rise MIN tới ngưỡng so sánh (ns) </t>
+  </si>
+  <si>
+    <t>Dòng điện min (uA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng thời gian phản ứng MIN - thời gian để ánh sáng thay đổi (không có -&gt; có) tới khi CPLD nhận được tín hiệu thay đổi đó (us)
+</t>
+  </si>
+  <si>
+    <t>Dòng điện max (uA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thời gian input fall MIN từ giá trị cực đại tới ngưỡng so sánh (ns) </t>
+  </si>
+  <si>
+    <t>Thời gian phản ứng MIN - thời gian để ánh sáng thay đổi từ (có -&gt; không có) tới khi CPLD nhận được tín hiệu thay đổi đó (us)</t>
+  </si>
+  <si>
+    <t>Thời gian input fall MAX từ giá trị cực đại tới ngưỡng so sánh (ns)</t>
+  </si>
+  <si>
+    <t>Thời gian phản ứng MAX - thời gian để ánh sáng thay đổi (có -&gt; không có) tới khi CPLD nhận được tín hiệu thay đổi đó (us)</t>
+  </si>
+  <si>
+    <t>Tổng thời gian để TẤT CẢ Sensor có thể nhận được tín hiệu lần nữa (us)</t>
+  </si>
+  <si>
+    <t>Giá thành (USD)</t>
+  </si>
+  <si>
+    <t>Giá thành (tính cả sensor)</t>
+  </si>
+  <si>
+    <t>K (Current - A)</t>
+  </si>
+  <si>
+    <t>L (Radiant Intensity - mW/sr)</t>
+  </si>
+  <si>
+    <t>Dùng R + Comparator</t>
+  </si>
+  <si>
+    <t>Dùng Transimpedence Amplifier + Comparator</t>
+  </si>
+  <si>
+    <t>Forward Current</t>
+  </si>
+  <si>
+    <t>Typ. Intensity</t>
+  </si>
+  <si>
+    <t>Giá trị tụ của Sensor (pF)</t>
+  </si>
+  <si>
+    <t>Giá trị tụ input mạch so sánh (pF)</t>
+  </si>
+  <si>
+    <t>Thời gian output rise của mạch so sánh (ns)</t>
+  </si>
+  <si>
+    <t>Độ phân giải comparator - max (mV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Độ rộng đường cong trễ (mV)</t>
+  </si>
+  <si>
+    <t>Số sensor</t>
+  </si>
+  <si>
+    <t>Thời gian output rise của sensor (RL = 50) (ns)</t>
+  </si>
+  <si>
+    <t>IR LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR Sensor </t>
   </si>
 </sst>
 </file>
@@ -41,7 +194,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +203,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Google Sans Text"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Google Sans Text"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -57,8 +231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -72,6 +247,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -80,19 +301,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,21 +331,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,70 +359,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,12 +369,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -221,179 +435,236 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -408,24 +679,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,45 +700,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -494,162 +708,246 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -972,8 +1270,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -990,7 +1288,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1027,4 +1325,537 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.8592592592593" customWidth="1"/>
+    <col min="2" max="2" width="21.837037037037" customWidth="1"/>
+    <col min="3" max="3" width="37.437037037037" customWidth="1"/>
+    <col min="4" max="4" width="22.9037037037037" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.9851851851852" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.2888888888889" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.1481481481481" style="8" customWidth="1"/>
+    <col min="8" max="8" width="24.5037037037037" customWidth="1"/>
+    <col min="9" max="9" width="17.5851851851852" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" ht="30" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1.5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" ht="30" spans="1:6">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f>VLOOKUP(B2,IRLEDParameters!A3:B7,2,FALSE)</f>
+        <v>1525</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8">
+        <f>TRUNC(3.6/B12*1000)</f>
+        <v>453</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8">
+        <f>D5</f>
+        <v>622.237216528702</v>
+      </c>
+    </row>
+    <row r="4" ht="45" spans="1:6">
+      <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.53</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8">
+        <v>200</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8">
+        <f>D4</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" ht="30" spans="1:6">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8">
+        <f>B11*D4</f>
+        <v>622.237216528702</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="30" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8">
+        <f>ATAN(B4/B5)</f>
+        <v>0.723530317533068</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8">
+        <f>B12*D4</f>
+        <v>1588.54166666667</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8">
+        <f>1000/(F5*2*PI()*F4)</f>
+        <v>0.795774715459477</v>
+      </c>
+    </row>
+    <row r="7" ht="30" spans="1:6">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8">
+        <f>0.5*D5</f>
+        <v>311.118608264351</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8">
+        <f>0.35/F5*1000</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8">
+        <f>D4*SUM(IRLEDParameters!D2:D3)*-LN(1-D7/D5)</f>
+        <v>1081.30960167351</v>
+      </c>
+      <c r="E8" s="8">
+        <f>SQRT(POWER(F7*-LN(1-D7/D5),2)+60*60)</f>
+        <v>249.910972558189</v>
+      </c>
+    </row>
+    <row r="9" ht="45" spans="1:5">
+      <c r="A9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <f>B3/(B5*B5)*POWER(COS(B6),(B7+B8))/1000</f>
+        <v>1.65929924407654</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="8">
+        <f>(D8+IRLEDParameters!D4)/1000</f>
+        <v>1.16130960167351</v>
+      </c>
+      <c r="E9" s="8">
+        <f>(E8+IRLEDParameters!D4)/1000</f>
+        <v>0.329910972558189</v>
+      </c>
+    </row>
+    <row r="10" ht="30" spans="1:5">
+      <c r="A10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <f>1.5*B9/0.8</f>
+        <v>3.11118608264351</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="8">
+        <f>-LN(1-D7/D6)*D4*SUM(IRLEDParameters!D2:D3)</f>
+        <v>340.035682824562</v>
+      </c>
+      <c r="E10" s="8">
+        <f>SQRT(POWER(-LN(1-D7/D6)*F7,2)+60*60)</f>
+        <v>97.0575746851967</v>
+      </c>
+    </row>
+    <row r="11" ht="60" spans="1:5">
+      <c r="A11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <f>1.5/0.8*B3/(B5*B5)*POWER(COS(ATAN(0.53/B5)),(B7+B8))/1000</f>
+        <v>3.11118608264351</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8">
+        <f>(D10+IRLEDParameters!D4)/1000</f>
+        <v>0.420035682824562</v>
+      </c>
+      <c r="E11" s="8">
+        <f>(E10+IRLEDParameters!D4)/1000</f>
+        <v>0.177057574685197</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="1:5">
+      <c r="A12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <f>1.5/0.8*B3/(B5*B5)*POWER(COS(0),(B7+B8))/1000</f>
+        <v>7.94270833333333</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8">
+        <f>D4*SUM(IRLEDParameters!D2:D3)*-LN(D7/D5)</f>
+        <v>1081.30960167351</v>
+      </c>
+      <c r="E12" s="8">
+        <f>SQRT(POWER(F7*-LN(D7/D5),2)+60*60)</f>
+        <v>249.910972558189</v>
+      </c>
+    </row>
+    <row r="13" ht="45" spans="3:5">
+      <c r="C13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8">
+        <f>(D12+IRLEDParameters!D4)/1000</f>
+        <v>1.16130960167351</v>
+      </c>
+      <c r="E13" s="8">
+        <f>(E12+IRLEDParameters!D4)/1000</f>
+        <v>0.329910972558189</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="3:5">
+      <c r="C14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8">
+        <f>-LN(D7/D6)*D4*SUM(IRLEDParameters!D2:D3)</f>
+        <v>2543.42004857068</v>
+      </c>
+      <c r="E14" s="8">
+        <f>SQRT(POWER(-LN(D7/D6)*F7,2)+60*60)</f>
+        <v>573.784800959365</v>
+      </c>
+    </row>
+    <row r="15" ht="45" spans="3:5">
+      <c r="C15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8">
+        <f>(D14+IRLEDParameters!D4)/1000</f>
+        <v>2.62342004857068</v>
+      </c>
+      <c r="E15" s="8">
+        <f>(E14+IRLEDParameters!D4)/1000</f>
+        <v>0.653784800959366</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="3:5">
+      <c r="C16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="8">
+        <f>D9+D15</f>
+        <v>3.78472965024419</v>
+      </c>
+      <c r="E16" s="8">
+        <f>E9+E15</f>
+        <v>0.983695773517554</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8">
+        <f>1.19/4*IRLEDParameters!D7</f>
+        <v>148.75</v>
+      </c>
+      <c r="E17" s="8">
+        <f>(1.19/4+1.77/2)*IRLEDParameters!D7</f>
+        <v>591.25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="8">
+        <f>D17+0.378*IRLEDParameters!D7</f>
+        <v>337.75</v>
+      </c>
+      <c r="E18" s="8">
+        <f>E17+0.378*IRLEDParameters!D7</f>
+        <v>780.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>IRLEDParameters!$A$3:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="15.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="36.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="40.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36.75" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2">
+        <v>1.8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:6">
+      <c r="A3" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="B3" s="3">
+        <v>365</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="1:6">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1025</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:6">
+      <c r="A5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1525</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" spans="1:6">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2060</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" spans="1:6">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4620</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>